--- a/일정_서승현.xlsx
+++ b/일정_서승현.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.sga_team\nanami\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12975"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,23 +61,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위진영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작업완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HeightMap class 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map.obj 띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Map에 띄울 object list 만들기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map obj vs HeightMap 둘중 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 Map 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +151,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +217,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -420,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,21 +507,45 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -511,40 +564,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,7 +645,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +680,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -827,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,172 +899,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="23"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="21"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="23"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="23"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="19" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="20" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1143,53 +1181,66 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="AK6" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1199,6 +1250,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/일정_서승현.xlsx
+++ b/일정_서승현.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,19 +78,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map.obj 띄우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Map에 띄울 object list 만들기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map obj vs HeightMap 둘중 결정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체적인 Map 만들기</t>
+    <t>Map Resources Test (X파일 사용결정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map Resources List 작성 후 Map 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map object BoundingBox 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조원들과 Map feedBack 하기 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,13 +532,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,25 +574,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,7 +864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -868,7 +875,7 @@
   <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,15 +906,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="28"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="19" t="s">
         <v>9</v>
       </c>
@@ -944,17 +951,17 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="19"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="29"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="19" t="s">
         <v>11</v>
       </c>
@@ -985,11 +992,11 @@
       <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="19"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19"/>
@@ -1024,47 +1031,47 @@
       <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="30" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1186,10 +1193,10 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -1204,21 +1211,21 @@
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
@@ -1228,19 +1235,21 @@
         <v>16</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="30"/>
+      <c r="M10" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_서승현.xlsx
+++ b/일정_서승현.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,19 +77,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Map Terrain 텍스쳐 깨짐현상 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Map Resources Test (X파일 사용결정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map Resources List 작성 후 Map 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map object BoundingBox 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">조원들과 Map feedBack 하기 </t>
+    <t>Map Resources Test (X파일 리스트 테스트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map 위에 오브젝트올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트들 Alpha 현상 해결중..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrainMap.X와 surfaceMap.X 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map 크기와 갯수 캐릭터와 조절 및 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map위에 오브젝트 올려서 크기 및 위치결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map 리소스추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map 피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +191,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +263,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -450,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,6 +595,39 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,22 +652,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -906,13 +990,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="19"/>
       <c r="G1" s="27"/>
       <c r="H1" s="19" t="s">
@@ -951,11 +1035,11 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="19"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -992,11 +1076,11 @@
       <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="19"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19"/>
@@ -1031,47 +1115,47 @@
       <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="33" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1191,65 +1275,160 @@
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="43"/>
       <c r="AK6" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="43"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F8" s="29"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="41"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="31"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="32"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E11" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="30"/>
-      <c r="M10" s="41"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="57"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="41"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="41"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="59"/>
+    </row>
+    <row r="17" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="S17" s="58"/>
+      <c r="T17" s="59"/>
+    </row>
+    <row r="18" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="U18" s="30"/>
+      <c r="V18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_서승현.xlsx
+++ b/일정_서승현.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,34 @@
   </si>
   <si>
     <t>Map 피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI리소스추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartScene, Loading class 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">컴퓨터 복구 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">복구되지 못한 UI 복구 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneCamera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneManager (Multi Thread)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,10 +650,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,36 +689,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -948,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -956,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,13 +1052,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="19"/>
       <c r="G1" s="27"/>
       <c r="H1" s="19" t="s">
@@ -1035,11 +1097,11 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="19"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -1076,11 +1138,11 @@
       <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="19"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19"/>
@@ -1115,47 +1177,47 @@
       <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="44" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="45" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1277,23 +1339,37 @@
       <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="40"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="42"/>
       <c r="AK6" s="18" t="s">
         <v>6</v>
       </c>
@@ -1302,23 +1378,37 @@
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="40"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="42"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
@@ -1388,16 +1478,16 @@
       <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="57"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="37"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E14" s="6" t="s">
@@ -1417,18 +1507,87 @@
       <c r="E16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="59"/>
-    </row>
-    <row r="17" spans="19:22" x14ac:dyDescent="0.3">
-      <c r="S17" s="58"/>
-      <c r="T17" s="59"/>
-    </row>
-    <row r="18" spans="19:22" x14ac:dyDescent="0.3">
+      <c r="Q16" s="34"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="46"/>
+    </row>
+    <row r="17" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="58"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="46"/>
+    </row>
+    <row r="18" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="29"/>
+      <c r="T18" s="60"/>
       <c r="U18" s="30"/>
       <c r="V18" s="31"/>
+    </row>
+    <row r="19" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="40"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="40"/>
+    </row>
+    <row r="20" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+    </row>
+    <row r="21" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="31"/>
+    </row>
+    <row r="22" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="42"/>
+    </row>
+    <row r="23" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
